--- a/Documents/テーブル定義書.xlsx
+++ b/Documents/テーブル定義書.xlsx
@@ -1,23 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kosaka/company/C2C-project/Documents/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD54E4E-1910-9144-AAED-B70E731996FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="17500" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="テーブル一覧" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="users" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="carts" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="items" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="categories" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="orders" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="order_details" sheetId="7" r:id="rId10"/>
+    <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
+    <sheet name="users" sheetId="2" r:id="rId2"/>
+    <sheet name="carts" sheetId="3" r:id="rId3"/>
+    <sheet name="items" sheetId="4" r:id="rId4"/>
+    <sheet name="categories" sheetId="5" r:id="rId5"/>
+    <sheet name="orders" sheetId="6" r:id="rId6"/>
+    <sheet name="order_details" sheetId="7" r:id="rId7"/>
+    <sheet name="shipping_addresses" sheetId="9" r:id="rId8"/>
+    <sheet name="bank_accounts" sheetId="10" r:id="rId9"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="100">
   <si>
     <t>テーブルNo</t>
   </si>
@@ -85,21 +96,9 @@
     <t>integer</t>
   </si>
   <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>名前(名)</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>名前(姓)</t>
-  </si>
-  <si>
     <t>nickname</t>
   </si>
   <si>
@@ -266,73 +265,203 @@
   </si>
   <si>
     <t>購入時価格</t>
+  </si>
+  <si>
+    <t>shipping_addresses</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>bank_accounts</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>氏名</t>
+    <rPh sb="0" eb="2">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>postal_code</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>ユーザID</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>郵便番号</t>
+    <rPh sb="0" eb="4">
+      <t>ユウビｎン</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>住所</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウｓｙオ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>bank_name</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>branch_name</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>名義人</t>
+    <rPh sb="0" eb="3">
+      <t>メイｇイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>銀行名</t>
+    <rPh sb="0" eb="3">
+      <t>ギｎン</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>支店名</t>
+    <rPh sb="0" eb="3">
+      <t>シテンメイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>登録日時</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>bank_number</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>口座番号</t>
+    <rPh sb="0" eb="2">
+      <t>コウｚア</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>種類</t>
+    <rPh sb="0" eb="2">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <sz val="10.0"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tsukushi a round gothic bold"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
-      <sz val="9.0"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica"/>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Inherit"/>
     </font>
     <font>
+      <sz val="6"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-    </font>
-    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <color theme="1"/>
-      <name val="Tsukushi a round gothic bold"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <color rgb="FF222222"/>
-      <name val="Inherit"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -340,7 +469,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -355,8 +484,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
-    <border/>
+  <borders count="6">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -370,6 +505,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -378,9 +514,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -392,123 +530,104 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="35">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -698,33 +817,35 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:K971"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="14.43"/>
-    <col customWidth="1" min="3" max="3" width="37.29"/>
-    <col customWidth="1" min="4" max="6" width="14.43"/>
+    <col min="1" max="2" width="14.3984375" customWidth="1"/>
+    <col min="3" max="3" width="37.19921875" customWidth="1"/>
+    <col min="4" max="6" width="14.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="2:11" ht="15.75" customHeight="1">
       <c r="B1" s="1"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1"/>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="2" spans="2:11" ht="15.75" customHeight="1"/>
+    <row r="3" spans="2:11" ht="15.75" customHeight="1">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1"/>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="4" spans="2:11" ht="15.75" customHeight="1"/>
+    <row r="5" spans="2:11" ht="15.75" customHeight="1">
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
@@ -740,65 +861,73 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="2:11" ht="15.75" customHeight="1">
       <c r="B6" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="2:11" ht="15.75" customHeight="1">
       <c r="B7" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="2:11" ht="15.75" customHeight="1">
       <c r="B8" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="2:11" ht="15.75" customHeight="1">
       <c r="B9" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="3">
-        <v>5.0</v>
+    <row r="10" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B10" s="8">
+        <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="C11" s="7" t="s">
+    <row r="11" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B11" s="27">
+        <v>6</v>
+      </c>
+      <c r="C11" s="28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="2"/>
-      <c r="C13" s="10"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="12" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B12" s="27">
+        <v>7</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B13" s="27">
+        <v>8</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="15.75" customHeight="1"/>
+    <row r="15" spans="2:11" ht="15.75" customHeight="1"/>
+    <row r="16" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -1755,61 +1884,60 @@
     <row r="970" ht="15.75" customHeight="1"/>
     <row r="971" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="11"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K999"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.43"/>
-    <col customWidth="1" min="2" max="2" width="22.43"/>
-    <col customWidth="1" min="3" max="3" width="30.29"/>
-    <col customWidth="1" min="4" max="5" width="3.43"/>
-    <col customWidth="1" min="6" max="6" width="14.43"/>
-    <col customWidth="1" min="8" max="8" width="17.14"/>
-    <col customWidth="1" min="9" max="10" width="16.43"/>
-    <col customWidth="1" min="11" max="11" width="73.43"/>
+    <col min="1" max="1" width="14.3984375" customWidth="1"/>
+    <col min="2" max="2" width="22.3984375" customWidth="1"/>
+    <col min="3" max="3" width="30.19921875" customWidth="1"/>
+    <col min="4" max="5" width="3.3984375" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" customWidth="1"/>
+    <col min="8" max="8" width="17.19921875" customWidth="1"/>
+    <col min="9" max="10" width="16.3984375" customWidth="1"/>
+    <col min="11" max="11" width="73.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1"/>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="11"/>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A3" s="10"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="B4" s="2"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1"/>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
@@ -1841,294 +1969,275 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="12" t="s">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13" t="s">
+      <c r="D9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="12" t="s">
+      <c r="G9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B10" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="G10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="12" t="s">
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C12" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="12" t="s">
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="12" t="s">
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B13" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="12" t="s">
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="12" t="s">
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B14" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="13"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="12" t="s">
+      <c r="C14" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="11"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="12" t="s">
+      <c r="C15" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="12" t="s">
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B16" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C16" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="12"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="12" t="s">
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+    </row>
+    <row r="17" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B17" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C17" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="12" t="s">
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B18" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C18" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="12" t="s">
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="12" t="s">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="G19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="B20" s="3" t="s">
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B20" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
       <c r="F20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="B21" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="K21" s="8"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+        <v>44</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+    </row>
+    <row r="22" spans="2:11" ht="15.75" customHeight="1"/>
+    <row r="23" spans="2:11" ht="15.75" customHeight="1"/>
+    <row r="24" spans="2:11" ht="15.75" customHeight="1"/>
+    <row r="25" spans="2:11" ht="15.75" customHeight="1"/>
+    <row r="26" spans="2:11" ht="15.75" customHeight="1"/>
+    <row r="27" spans="2:11" ht="15.75" customHeight="1"/>
+    <row r="28" spans="2:11" ht="15.75" customHeight="1"/>
+    <row r="29" spans="2:11" ht="15.75" customHeight="1"/>
+    <row r="30" spans="2:11" ht="15.75" customHeight="1"/>
+    <row r="31" spans="2:11" ht="15.75" customHeight="1"/>
+    <row r="32" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -3096,68 +3205,64 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="11"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K1001"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.43"/>
-    <col customWidth="1" min="2" max="2" width="22.43"/>
-    <col customWidth="1" min="3" max="3" width="30.29"/>
-    <col customWidth="1" min="4" max="5" width="3.43"/>
-    <col customWidth="1" min="6" max="6" width="14.43"/>
-    <col customWidth="1" min="8" max="8" width="17.14"/>
-    <col customWidth="1" min="9" max="10" width="16.43"/>
-    <col customWidth="1" min="11" max="11" width="73.43"/>
+    <col min="1" max="1" width="14.3984375" customWidth="1"/>
+    <col min="2" max="2" width="22.3984375" customWidth="1"/>
+    <col min="3" max="3" width="30.19921875" customWidth="1"/>
+    <col min="4" max="5" width="3.3984375" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" customWidth="1"/>
+    <col min="8" max="8" width="17.19921875" customWidth="1"/>
+    <col min="9" max="10" width="16.3984375" customWidth="1"/>
+    <col min="11" max="11" width="73.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="11"/>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A3" s="10"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1"/>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
@@ -3189,12 +3294,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="B9" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>20</v>
@@ -3210,17 +3315,17 @@
         <v>20</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="B10" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
@@ -3237,12 +3342,12 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1">
       <c r="B11" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
@@ -3259,12 +3364,12 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1">
       <c r="B12" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -3279,17 +3384,17 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1">
       <c r="B13" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>20</v>
@@ -3297,21 +3402,21 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>20</v>
@@ -3319,23 +3424,23 @@
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -4322,62 +4427,61 @@
     <row r="1000" ht="15.75" customHeight="1"/>
     <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="11"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.43"/>
-    <col customWidth="1" min="2" max="2" width="22.43"/>
-    <col customWidth="1" min="3" max="3" width="30.29"/>
-    <col customWidth="1" min="4" max="5" width="3.43"/>
-    <col customWidth="1" min="6" max="6" width="14.43"/>
-    <col customWidth="1" min="8" max="8" width="17.14"/>
-    <col customWidth="1" min="9" max="10" width="16.43"/>
-    <col customWidth="1" min="11" max="11" width="73.43"/>
+    <col min="1" max="1" width="14.3984375" customWidth="1"/>
+    <col min="2" max="2" width="22.3984375" customWidth="1"/>
+    <col min="3" max="3" width="30.19921875" customWidth="1"/>
+    <col min="4" max="5" width="3.3984375" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" customWidth="1"/>
+    <col min="8" max="8" width="17.19921875" customWidth="1"/>
+    <col min="9" max="10" width="16.3984375" customWidth="1"/>
+    <col min="11" max="11" width="73.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1"/>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="11"/>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A3" s="10"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1"/>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
@@ -4409,12 +4513,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="B9" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>20</v>
@@ -4430,188 +4534,188 @@
         <v>20</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="12" t="s">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B10" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B12" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="12" t="s">
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B13" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B14" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="12" t="s">
+      <c r="G14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B15" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B16" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="21" t="s">
+      <c r="G16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+    </row>
+    <row r="17" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B17" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="12" t="s">
+      <c r="C17" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="13"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="K17" s="12"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
+      <c r="G17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="11">
+        <v>1</v>
+      </c>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="2:11" ht="15.75" customHeight="1">
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>20</v>
@@ -4619,21 +4723,21 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="2:11" ht="15.75" customHeight="1">
       <c r="B19" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>20</v>
@@ -4641,34 +4745,34 @@
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K19" s="8"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="20" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+    </row>
+    <row r="21" spans="2:11" ht="15.75" customHeight="1"/>
+    <row r="22" spans="2:11" ht="15.75" customHeight="1"/>
+    <row r="23" spans="2:11" ht="15.75" customHeight="1"/>
+    <row r="24" spans="2:11" ht="15.75" customHeight="1"/>
+    <row r="25" spans="2:11" ht="15.75" customHeight="1"/>
+    <row r="26" spans="2:11" ht="15.75" customHeight="1"/>
+    <row r="27" spans="2:11" ht="15.75" customHeight="1"/>
+    <row r="28" spans="2:11" ht="15.75" customHeight="1"/>
+    <row r="29" spans="2:11" ht="15.75" customHeight="1"/>
+    <row r="30" spans="2:11" ht="15.75" customHeight="1"/>
+    <row r="31" spans="2:11" ht="15.75" customHeight="1"/>
+    <row r="32" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -5638,54 +5742,54 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="11"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A2:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="22.0"/>
-    <col customWidth="1" min="11" max="11" width="68.14"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="11" max="11" width="68.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="1:11">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3">
-      <c r="A3" s="11"/>
+    <row r="3" spans="1:11">
+      <c r="A3" s="10"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6">
-      <c r="B6" s="23" t="s">
+    <row r="6" spans="1:11">
+      <c r="B6" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11">
       <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
@@ -5717,61 +5821,61 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="12" t="s">
+    <row r="9" spans="1:11">
+      <c r="B9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13" t="s">
+      <c r="C9" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="12"/>
-    </row>
-    <row r="11">
+      <c r="G9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="B11" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>20</v>
@@ -5779,21 +5883,21 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K11" s="3"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11">
       <c r="B12" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>20</v>
@@ -5801,80 +5905,79 @@
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K12" s="8"/>
     </row>
-    <row r="13">
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
+    <row r="13" spans="1:11">
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="11"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:K991"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.43"/>
-    <col customWidth="1" min="2" max="2" width="22.43"/>
-    <col customWidth="1" min="3" max="3" width="30.29"/>
-    <col customWidth="1" min="4" max="5" width="3.43"/>
-    <col customWidth="1" min="6" max="6" width="14.43"/>
-    <col customWidth="1" min="8" max="8" width="17.14"/>
-    <col customWidth="1" min="9" max="10" width="16.43"/>
-    <col customWidth="1" min="11" max="11" width="73.43"/>
+    <col min="1" max="1" width="14.3984375" customWidth="1"/>
+    <col min="2" max="2" width="22.3984375" customWidth="1"/>
+    <col min="3" max="3" width="30.19921875" customWidth="1"/>
+    <col min="4" max="5" width="3.3984375" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" customWidth="1"/>
+    <col min="8" max="8" width="17.19921875" customWidth="1"/>
+    <col min="9" max="10" width="16.3984375" customWidth="1"/>
+    <col min="11" max="11" width="73.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1">
       <c r="A1" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="11"/>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A3" s="10"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1"/>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
@@ -5906,12 +6009,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="B9" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>20</v>
@@ -5927,66 +6030,66 @@
         <v>20</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="24"/>
-      <c r="B10" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="13" t="s">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A10" s="23"/>
+      <c r="B10" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="24"/>
-      <c r="B11" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="12" t="s">
+      <c r="G10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A11" s="23"/>
+      <c r="B11" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
+      <c r="G11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1">
       <c r="B12" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>20</v>
@@ -5994,21 +6097,21 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1">
       <c r="B13" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>20</v>
@@ -6016,24 +6119,24 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K13" s="8"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -7010,56 +7113,56 @@
     <row r="990" ht="15.75" customHeight="1"/>
     <row r="991" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="11"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A2:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="K1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="17.14"/>
-    <col customWidth="1" min="4" max="4" width="3.86"/>
-    <col customWidth="1" min="5" max="5" width="4.14"/>
-    <col customWidth="1" min="11" max="11" width="42.86"/>
+    <col min="2" max="2" width="17.19921875" customWidth="1"/>
+    <col min="4" max="4" width="3.796875" customWidth="1"/>
+    <col min="5" max="5" width="4.19921875" customWidth="1"/>
+    <col min="11" max="11" width="42.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="1:11">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3">
-      <c r="A3" s="11"/>
+    <row r="3" spans="1:11">
+      <c r="A3" s="10"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11">
       <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11">
       <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
@@ -7091,12 +7194,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11">
       <c r="B9" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>20</v>
@@ -7112,106 +7215,106 @@
         <v>20</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10">
-      <c r="B10" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="12" t="s">
+    <row r="10" spans="1:11">
+      <c r="B10" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="13" t="s">
+      <c r="C10" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="13" t="s">
+      <c r="G10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="13" t="s">
+      <c r="G11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="13" t="s">
+      <c r="G12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="B13" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-    </row>
-    <row r="14">
+      <c r="G13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="B14" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>20</v>
@@ -7219,21 +7322,21 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:11">
       <c r="B15" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>20</v>
@@ -7241,23 +7344,561 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K15" s="8"/>
     </row>
-    <row r="16">
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
+    <row r="16" spans="1:11">
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="11"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD75375-19DF-7445-8845-42536F31BBAC}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A2:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.796875" customWidth="1"/>
+    <col min="5" max="5" width="4.19921875" customWidth="1"/>
+    <col min="11" max="11" width="42.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="10"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="B13" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="B15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B66AD27-B4E8-F746-98CF-E2E99C993A96}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A2:K18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.796875" customWidth="1"/>
+    <col min="5" max="5" width="4.19921875" customWidth="1"/>
+    <col min="11" max="11" width="42.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="10"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="B13" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="B15" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="B16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>